--- a/portfolio/table 구현.xlsx
+++ b/portfolio/table 구현.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12915" windowHeight="6270" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12915" windowHeight="6270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="322">
   <si>
     <t>상품등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,9 +438,6 @@
     <t>Available date</t>
   </si>
   <si>
-    <t>Cancellation date</t>
-  </si>
-  <si>
     <t>Current Status</t>
   </si>
   <si>
@@ -776,10 +773,6 @@
   </si>
   <si>
     <t>2020.09.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -878,10 +871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ticketType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그라운드시소 서촌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,10 +899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thumnail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ppNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,11 +915,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tickeRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회차별</t>
+    <t>priceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회차별 상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -942,27 +935,321 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>회차별 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbnail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>주말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product+round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundlistnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회차당매수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회차타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundListNum</t>
+    <t>예약번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1650135790</t>
+  </si>
+  <si>
+    <t>1매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020년 08월 30일 (일) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드시소 서촌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유미의 세포들 특별전 (2020.7월-9월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">할인타입 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소가능일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말 일반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1650135460</t>
+  </si>
+  <si>
+    <t>유미의 세포들 특별전 (2020.10월-12월)1매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020년 10월 30일 (일) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주중 일반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차(10시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회차(11시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회차(12시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회차(13시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회차(14시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6회차(15시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회차(16시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8회차(17시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9회차(18시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회차(19시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11회차(20시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12회차(21시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13회차(22시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2522-2525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회차(14시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매일(시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.06.16:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.05.16:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>czcz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -970,15 +1257,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">roundList </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productRegister</t>
+    <t>가격리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1650135461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.07.18:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancellation date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재상태(예매/취소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1297,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,8 +1437,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF33333B"/>
+      <name val="맑은고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF33333B"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCF3434"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,6 +1492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,6 +1683,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2559,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:T21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3027,7 +3424,7 @@
         <v>20005383</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -3337,19 +3734,19 @@
         <v>20005169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>193</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
         <v>84</v>
@@ -3373,7 +3770,7 @@
         <v>50</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O14" s="1">
         <v>12000</v>
@@ -3387,19 +3784,19 @@
         <v>20005169</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>193</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s">
         <v>84</v>
@@ -3423,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O15" s="1">
         <v>9000</v>
@@ -3437,19 +3834,19 @@
         <v>20005169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>193</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" t="s">
         <v>84</v>
@@ -3473,7 +3870,7 @@
         <v>50</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O16" s="1">
         <v>4500</v>
@@ -3487,19 +3884,19 @@
         <v>20005149</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>195</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
         <v>84</v>
@@ -3523,7 +3920,7 @@
         <v>50</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O17" s="1">
         <v>12000</v>
@@ -3537,19 +3934,19 @@
         <v>20005149</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>195</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
         <v>84</v>
@@ -3573,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O18" s="1">
         <v>9000</v>
@@ -3587,19 +3984,19 @@
         <v>20005149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>195</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
         <v>84</v>
@@ -3623,7 +4020,7 @@
         <v>50</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O19" s="1">
         <v>4500</v>
@@ -3637,25 +4034,25 @@
         <v>19018847</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>60</v>
@@ -3687,28 +4084,28 @@
         <v>19018840</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
@@ -3734,16 +4131,16 @@
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
         <v>210</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>211</v>
-      </c>
-      <c r="D26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" t="s">
-        <v>213</v>
       </c>
       <c r="F26" t="s">
         <v>31</v>
@@ -3758,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U61"/>
+  <dimension ref="B2:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65:K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3773,7 +4170,7 @@
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
@@ -3852,7 +4249,7 @@
         <v>20005062</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>18</v>
@@ -4143,7 +4540,7 @@
         <v>97</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>37</v>
@@ -4310,7 +4707,7 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="16" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="2:21">
@@ -4380,19 +4777,19 @@
         <v>20005169</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="G30" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>84</v>
@@ -4416,7 +4813,7 @@
         <v>50</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P30" s="20">
         <v>12000</v>
@@ -4430,19 +4827,19 @@
         <v>20005169</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="G31" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>84</v>
@@ -4466,7 +4863,7 @@
         <v>40</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P31" s="20">
         <v>9000</v>
@@ -4480,19 +4877,19 @@
         <v>20005169</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="G32" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>84</v>
@@ -4516,7 +4913,7 @@
         <v>50</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P32" s="20">
         <v>4500</v>
@@ -4530,19 +4927,19 @@
         <v>20005149</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="G33" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>84</v>
@@ -4566,7 +4963,7 @@
         <v>50</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P33" s="20">
         <v>12000</v>
@@ -4580,19 +4977,19 @@
         <v>20005149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="G34" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>84</v>
@@ -4616,7 +5013,7 @@
         <v>40</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P34" s="20">
         <v>9000</v>
@@ -4630,19 +5027,19 @@
         <v>20005149</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="G35" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>84</v>
@@ -4666,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P35" s="20">
         <v>4500</v>
@@ -4680,25 +5077,25 @@
         <v>19018847</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>44</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>60</v>
@@ -4730,28 +5127,28 @@
         <v>19018840</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>44</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K37" s="20">
         <v>2</v>
@@ -4777,7 +5174,7 @@
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="16" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C40" s="48"/>
     </row>
@@ -4795,14 +5192,12 @@
         <v>6</v>
       </c>
       <c r="F41" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>231</v>
-      </c>
+      <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
     </row>
@@ -4811,23 +5206,21 @@
         <v>20005169</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H42" s="22">
-        <v>15</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
     </row>
@@ -4836,22 +5229,19 @@
         <v>20005149</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H43">
-        <v>15</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4859,22 +5249,19 @@
         <v>19018840</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" s="49" t="s">
         <v>233</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="15.75" customHeight="1">
@@ -4882,22 +5269,19 @@
         <v>19018847</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="15.75" customHeight="1">
@@ -4908,24 +5292,24 @@
     </row>
     <row r="47" spans="2:17">
       <c r="B47" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:17">
       <c r="B48" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" t="s">
         <v>215</v>
-      </c>
-      <c r="D48" t="s">
-        <v>216</v>
-      </c>
-      <c r="E48" t="s">
-        <v>212</v>
-      </c>
-      <c r="F48" t="s">
-        <v>217</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -4934,13 +5318,13 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K48" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -4948,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>18</v>
@@ -4966,10 +5350,10 @@
         <v>4</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -4977,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>41</v>
@@ -4986,7 +5370,7 @@
         <v>44</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>60</v>
@@ -4998,7 +5382,7 @@
         <v>92</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -5006,15 +5390,13 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>241</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>97</v>
@@ -5025,15 +5407,7 @@
       <c r="E53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H53" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" t="s">
-        <v>237</v>
-      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="1">
@@ -5043,20 +5417,12 @@
         <v>20005169</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E54" s="20">
         <v>12000</v>
       </c>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>196</v>
-      </c>
-      <c r="I54">
-        <v>50</v>
-      </c>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="1">
@@ -5066,20 +5432,12 @@
         <v>20005169</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E55" s="20">
         <v>9000</v>
       </c>
-      <c r="G55" s="9">
-        <v>2</v>
-      </c>
-      <c r="H55" t="s">
-        <v>234</v>
-      </c>
-      <c r="I55">
-        <v>40</v>
-      </c>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="1">
@@ -5089,7 +5447,7 @@
         <v>20005169</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E56" s="20">
         <v>4500</v>
@@ -5117,14 +5475,12 @@
         <v>20005062</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" s="20">
         <v>11900</v>
       </c>
-      <c r="G58" s="15" t="s">
-        <v>235</v>
-      </c>
+      <c r="G58" s="14"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="1">
@@ -5139,12 +5495,8 @@
       <c r="E59" s="20">
         <v>3000</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>239</v>
-      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="17"/>
     </row>
     <row r="60" spans="2:10">
@@ -5160,12 +5512,7 @@
       <c r="E60" s="20">
         <v>13000</v>
       </c>
-      <c r="H60" s="9">
-        <v>20005169</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="1">
@@ -5180,11 +5527,491 @@
       <c r="E61" s="20">
         <v>12000</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="9"/>
+    </row>
+    <row r="65" spans="6:11">
+      <c r="F65" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11">
+      <c r="F67" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11">
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="9">
         <v>20005169</v>
       </c>
-      <c r="I61">
+      <c r="H68" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="K68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11">
+      <c r="F69" s="1">
         <v>2</v>
+      </c>
+      <c r="G69" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="K69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="6:11">
+      <c r="F70" s="1">
+        <v>3</v>
+      </c>
+      <c r="G70" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="K70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11">
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+      <c r="G71" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="6:11">
+      <c r="F72" s="1">
+        <v>5</v>
+      </c>
+      <c r="G72" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="K72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="6:11">
+      <c r="F73" s="1">
+        <v>6</v>
+      </c>
+      <c r="G73" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="K73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="6:11">
+      <c r="F74" s="1">
+        <v>7</v>
+      </c>
+      <c r="G74" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="K74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="6:11">
+      <c r="F75" s="1">
+        <v>8</v>
+      </c>
+      <c r="G75" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="K75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="6:11">
+      <c r="F76" s="1">
+        <v>9</v>
+      </c>
+      <c r="G76" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="K76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="6:11">
+      <c r="F77" s="1">
+        <v>10</v>
+      </c>
+      <c r="G77" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="K77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="6:11">
+      <c r="F78" s="1">
+        <v>11</v>
+      </c>
+      <c r="G78" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="6:11">
+      <c r="F79" s="1">
+        <v>12</v>
+      </c>
+      <c r="G79" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="K79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="6:11">
+      <c r="F80" s="1">
+        <v>13</v>
+      </c>
+      <c r="G80" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="K80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11">
+      <c r="F81" s="1">
+        <v>14</v>
+      </c>
+      <c r="G81" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="K81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11">
+      <c r="F82" s="1">
+        <v>15</v>
+      </c>
+      <c r="G82" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="K82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="6:11">
+      <c r="F83" s="1">
+        <v>16</v>
+      </c>
+      <c r="G83" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="K83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11">
+      <c r="F84" s="1">
+        <v>17</v>
+      </c>
+      <c r="G84" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11">
+      <c r="F85" s="1">
+        <v>18</v>
+      </c>
+      <c r="G85" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="K85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11">
+      <c r="F86" s="1">
+        <v>19</v>
+      </c>
+      <c r="G86" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="K86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11">
+      <c r="F87" s="1">
+        <v>20</v>
+      </c>
+      <c r="G87" s="9">
+        <v>19018840</v>
+      </c>
+      <c r="H87" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="K87">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11">
+      <c r="F88" s="1">
+        <v>21</v>
+      </c>
+      <c r="G88" s="9">
+        <v>19000555</v>
+      </c>
+      <c r="H88" s="9">
+        <v>19000555</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="K88">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="6:11">
+      <c r="F89" s="1">
+        <v>22</v>
+      </c>
+      <c r="G89" s="9">
+        <v>20054252</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="K89">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="6:11">
+      <c r="F90" s="1">
+        <v>23</v>
+      </c>
+      <c r="G90" s="9">
+        <v>20054252</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K90">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -5195,28 +6022,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="13" width="13.625" customWidth="1"/>
     <col min="14" max="14" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -5245,19 +6075,19 @@
         <v>108</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
@@ -5265,16 +6095,16 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>36</v>
@@ -5286,19 +6116,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>129</v>
-      </c>
       <c r="J3" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" s="43">
         <v>0.1</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M3">
         <v>13500</v>
@@ -5306,19 +6136,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>121</v>
       </c>
       <c r="F4" s="39">
         <v>11900</v>
@@ -5327,10 +6157,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>129</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>49</v>
@@ -5339,7 +6169,7 @@
         <v>0.1</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4">
         <v>10710</v>
@@ -5347,16 +6177,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>127</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>48</v>
@@ -5371,10 +6201,10 @@
         <v>42</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5">
         <v>30000</v>
@@ -5399,22 +6229,22 @@
         <v>107</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
@@ -5424,19 +6254,19 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>114</v>
-      </c>
       <c r="C10" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="39">
         <v>1</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="44">
         <v>0.1</v>
@@ -5445,13 +6275,13 @@
         <v>13500</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="42"/>
@@ -5460,13 +6290,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="39">
         <v>1</v>
@@ -5481,13 +6311,13 @@
         <v>10710</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="39"/>
@@ -5496,19 +6326,19 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -5517,25 +6347,25 @@
         <v>30000</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="38"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>20005062</v>
       </c>
@@ -5546,18 +6376,18 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>20005062</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="39">
         <v>11900</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>20005842</v>
       </c>
@@ -5566,6 +6396,986 @@
       </c>
       <c r="C19">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="20">
+        <v>17</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="N25" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="O25" s="22">
+        <v>10800</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="20">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22">
+        <v>9000</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="20">
+        <v>14</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22">
+        <v>9000</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="9">
+        <v>20005062</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="20">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" s="9">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22">
+        <v>15000</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="9"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="9"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="9"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="E35" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="61">
+        <v>12000</v>
+      </c>
+      <c r="I37" s="54"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H38" s="61">
+        <v>9000</v>
+      </c>
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9">
+        <v>20005062</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="20">
+        <v>3</v>
+      </c>
+      <c r="F39" s="9">
+        <v>20005062</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="H39" s="61">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="9"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="22"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="E43" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="J47" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="J48" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J50" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
+      <c r="F51" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="J51" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="J52" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
+      <c r="F53" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="J53" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="E54" s="1">
+        <v>9</v>
+      </c>
+      <c r="F54" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="J54" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="C55" s="10"/>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="J55" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="C56" s="10"/>
+      <c r="E56" s="1">
+        <v>11</v>
+      </c>
+      <c r="F56" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="J56" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="E57" s="1">
+        <v>12</v>
+      </c>
+      <c r="F57" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="J57" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="E58" s="1">
+        <v>13</v>
+      </c>
+      <c r="F58" s="9">
+        <v>20005169</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="J58" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="E59" s="1">
+        <v>14</v>
+      </c>
+      <c r="F59" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J59" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="E60" s="1">
+        <v>15</v>
+      </c>
+      <c r="F60" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="J60" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="E61" s="1">
+        <v>16</v>
+      </c>
+      <c r="F61" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="J61" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="E62" s="1">
+        <v>17</v>
+      </c>
+      <c r="F62" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="J62" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="E63" s="1">
+        <v>18</v>
+      </c>
+      <c r="F63" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J63" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="E64" s="1">
+        <v>19</v>
+      </c>
+      <c r="F64" s="9">
+        <v>20005149</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="J64" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10">
+      <c r="E65" s="1">
+        <v>20</v>
+      </c>
+      <c r="F65" s="9">
+        <v>19018840</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="J65" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10">
+      <c r="E66" s="1">
+        <v>21</v>
+      </c>
+      <c r="F66" s="9">
+        <v>19000555</v>
+      </c>
+      <c r="G66" s="9">
+        <v>19000555</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="J66" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10">
+      <c r="E67" s="1">
+        <v>22</v>
+      </c>
+      <c r="F67" s="9">
+        <v>20054252</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J67" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10">
+      <c r="E68" s="1">
+        <v>23</v>
+      </c>
+      <c r="F68" s="9">
+        <v>20054252</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="J68" s="1">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -5598,33 +7408,33 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
         <v>145</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>148</v>
-      </c>
-      <c r="H2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5632,76 +7442,76 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
         <v>150</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>155</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>156</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>157</v>
       </c>
-      <c r="E6" t="s">
-        <v>158</v>
-      </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" t="s">
         <v>173</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>174</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>175</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>176</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>177</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>178</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>179</v>
-      </c>
-      <c r="O6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5709,46 +7519,46 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
         <v>161</v>
       </c>
-      <c r="E7" t="s">
-        <v>162</v>
-      </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
         <v>164</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>165</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>166</v>
       </c>
-      <c r="J7" t="s">
-        <v>167</v>
-      </c>
       <c r="K7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" t="s">
         <v>164</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>165</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>166</v>
       </c>
-      <c r="N7" t="s">
-        <v>167</v>
-      </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5756,33 +7566,33 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8">
         <v>202</v>
       </c>
       <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
         <v>169</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
         <v>170</v>
       </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>171</v>
       </c>
-      <c r="H8" t="s">
-        <v>172</v>
-      </c>
       <c r="L8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="F11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5790,23 +7600,24 @@
         <v>95</v>
       </c>
       <c r="G12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" t="s">
         <v>182</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" t="s">
         <v>183</v>
       </c>
-      <c r="I12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>184</v>
-      </c>
-      <c r="K12" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>